--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/16 Kochua Khal/Kachua_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/16 Kochua Khal/Kachua_Dataprep_Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB6BDC0-43F2-4AAB-8828-7BCA95B3C03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B07A00-6A45-4086-A389-AAE63ABB00B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -1035,21 +1035,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
@@ -1070,6 +1055,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -18119,8 +18119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView topLeftCell="A622" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A622" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q637" sqref="Q637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18521,21 +18521,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -18574,10 +18574,10 @@
         <v>78</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="84">
+      <c r="D3" s="90">
         <v>0</v>
       </c>
-      <c r="E3" s="84"/>
+      <c r="E3" s="90"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
@@ -18587,21 +18587,21 @@
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="I4" s="85" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="I4" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
@@ -19302,11 +19302,11 @@
       <c r="K22" s="28"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
-      <c r="O22" s="87" t="s">
+      <c r="O22" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
@@ -19368,11 +19368,11 @@
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="90" t="s">
+      <c r="O25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="87"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
@@ -19534,10 +19534,10 @@
       <c r="E33" s="22"/>
       <c r="F33" s="25"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="86"/>
+      <c r="I33" s="89"/>
       <c r="J33" s="28">
         <f>G27</f>
         <v>33.787999999999997</v>
@@ -19562,10 +19562,10 @@
         <v>78</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="84">
+      <c r="D34" s="90">
         <v>0.1</v>
       </c>
-      <c r="E34" s="84"/>
+      <c r="E34" s="90"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -19575,24 +19575,24 @@
       <c r="P34" s="23"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="85" t="s">
+      <c r="I35" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -20443,10 +20443,10 @@
       <c r="E64" s="22"/>
       <c r="F64" s="25"/>
       <c r="G64" s="28"/>
-      <c r="H64" s="86" t="s">
+      <c r="H64" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I64" s="86"/>
+      <c r="I64" s="89"/>
       <c r="J64" s="28">
         <f>G58</f>
         <v>10.1745</v>
@@ -20471,10 +20471,10 @@
         <v>78</v>
       </c>
       <c r="C65" s="17"/>
-      <c r="D65" s="84">
+      <c r="D65" s="90">
         <v>0.2</v>
       </c>
-      <c r="E65" s="84"/>
+      <c r="E65" s="90"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
@@ -20487,24 +20487,24 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
       <c r="H66" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I66" s="85" t="s">
+      <c r="I66" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
@@ -21309,10 +21309,10 @@
       <c r="E90" s="22"/>
       <c r="F90" s="25"/>
       <c r="G90" s="28"/>
-      <c r="H90" s="86" t="s">
+      <c r="H90" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I90" s="86"/>
+      <c r="I90" s="89"/>
       <c r="J90" s="28">
         <f>G89</f>
         <v>9.93675</v>
@@ -21356,10 +21356,10 @@
         <v>78</v>
       </c>
       <c r="C92" s="17"/>
-      <c r="D92" s="84">
+      <c r="D92" s="90">
         <v>0.3</v>
       </c>
-      <c r="E92" s="84"/>
+      <c r="E92" s="90"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
@@ -21372,24 +21372,24 @@
       </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B93" s="85" t="s">
+      <c r="B93" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="91"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I93" s="85" t="s">
+      <c r="I93" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
+      <c r="J93" s="91"/>
+      <c r="K93" s="91"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="91"/>
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
@@ -22234,10 +22234,10 @@
       <c r="E117" s="22"/>
       <c r="F117" s="25"/>
       <c r="G117" s="28"/>
-      <c r="H117" s="86" t="s">
+      <c r="H117" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I117" s="86"/>
+      <c r="I117" s="89"/>
       <c r="J117" s="28">
         <f>G116</f>
         <v>15.194500000000003</v>
@@ -22281,10 +22281,10 @@
         <v>78</v>
       </c>
       <c r="C119" s="17"/>
-      <c r="D119" s="84">
+      <c r="D119" s="90">
         <v>0.4</v>
       </c>
-      <c r="E119" s="84"/>
+      <c r="E119" s="90"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
@@ -22294,24 +22294,24 @@
       <c r="P119" s="23"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B120" s="85" t="s">
+      <c r="B120" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="91"/>
       <c r="H120" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I120" s="85" t="s">
+      <c r="I120" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J120" s="85"/>
-      <c r="K120" s="85"/>
-      <c r="L120" s="85"/>
-      <c r="M120" s="85"/>
+      <c r="J120" s="91"/>
+      <c r="K120" s="91"/>
+      <c r="L120" s="91"/>
+      <c r="M120" s="91"/>
       <c r="N120" s="24"/>
       <c r="O120" s="24"/>
       <c r="P120" s="29">
@@ -23107,10 +23107,10 @@
       <c r="E144" s="22"/>
       <c r="F144" s="25"/>
       <c r="G144" s="28"/>
-      <c r="H144" s="86" t="s">
+      <c r="H144" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I144" s="86"/>
+      <c r="I144" s="89"/>
       <c r="J144" s="28">
         <f>G143</f>
         <v>3.1809999999999983</v>
@@ -23135,10 +23135,10 @@
         <v>78</v>
       </c>
       <c r="C145" s="17"/>
-      <c r="D145" s="84">
+      <c r="D145" s="90">
         <v>0.5</v>
       </c>
-      <c r="E145" s="84"/>
+      <c r="E145" s="90"/>
       <c r="J145" s="22"/>
       <c r="K145" s="22"/>
       <c r="L145" s="22"/>
@@ -23148,24 +23148,24 @@
       <c r="P145" s="23"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="85" t="s">
+      <c r="B146" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="85"/>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="91"/>
+      <c r="G146" s="91"/>
       <c r="H146" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I146" s="85" t="s">
+      <c r="I146" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J146" s="85"/>
-      <c r="K146" s="85"/>
-      <c r="L146" s="85"/>
-      <c r="M146" s="85"/>
+      <c r="J146" s="91"/>
+      <c r="K146" s="91"/>
+      <c r="L146" s="91"/>
+      <c r="M146" s="91"/>
       <c r="N146" s="24"/>
       <c r="O146" s="24"/>
       <c r="P146" s="29">
@@ -23961,10 +23961,10 @@
       <c r="E170" s="22"/>
       <c r="F170" s="25"/>
       <c r="G170" s="28"/>
-      <c r="H170" s="86" t="s">
+      <c r="H170" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I170" s="86"/>
+      <c r="I170" s="89"/>
       <c r="J170" s="28">
         <f>G169</f>
         <v>14.463500000000002</v>
@@ -23989,10 +23989,10 @@
         <v>78</v>
       </c>
       <c r="C171" s="17"/>
-      <c r="D171" s="84">
+      <c r="D171" s="90">
         <v>0.6</v>
       </c>
-      <c r="E171" s="84"/>
+      <c r="E171" s="90"/>
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
       <c r="L171" s="22"/>
@@ -24002,24 +24002,24 @@
       <c r="P171" s="23"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="85" t="s">
+      <c r="B172" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C172" s="85"/>
-      <c r="D172" s="85"/>
-      <c r="E172" s="85"/>
-      <c r="F172" s="85"/>
-      <c r="G172" s="85"/>
+      <c r="C172" s="91"/>
+      <c r="D172" s="91"/>
+      <c r="E172" s="91"/>
+      <c r="F172" s="91"/>
+      <c r="G172" s="91"/>
       <c r="H172" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I172" s="85" t="s">
+      <c r="I172" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J172" s="85"/>
-      <c r="K172" s="85"/>
-      <c r="L172" s="85"/>
-      <c r="M172" s="85"/>
+      <c r="J172" s="91"/>
+      <c r="K172" s="91"/>
+      <c r="L172" s="91"/>
+      <c r="M172" s="91"/>
       <c r="N172" s="24"/>
       <c r="O172" s="24"/>
       <c r="P172" s="29">
@@ -24774,10 +24774,10 @@
       <c r="E196" s="22"/>
       <c r="F196" s="25"/>
       <c r="G196" s="28"/>
-      <c r="H196" s="86" t="s">
+      <c r="H196" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I196" s="86"/>
+      <c r="I196" s="89"/>
       <c r="J196" s="28">
         <f>G195</f>
         <v>10.928999999999998</v>
@@ -24802,10 +24802,10 @@
         <v>78</v>
       </c>
       <c r="C197" s="17"/>
-      <c r="D197" s="84">
+      <c r="D197" s="90">
         <v>0.7</v>
       </c>
-      <c r="E197" s="84"/>
+      <c r="E197" s="90"/>
       <c r="J197" s="22"/>
       <c r="K197" s="22"/>
       <c r="L197" s="22"/>
@@ -24815,24 +24815,24 @@
       <c r="P197" s="23"/>
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B198" s="85" t="s">
+      <c r="B198" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C198" s="85"/>
-      <c r="D198" s="85"/>
-      <c r="E198" s="85"/>
-      <c r="F198" s="85"/>
-      <c r="G198" s="85"/>
+      <c r="C198" s="91"/>
+      <c r="D198" s="91"/>
+      <c r="E198" s="91"/>
+      <c r="F198" s="91"/>
+      <c r="G198" s="91"/>
       <c r="H198" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I198" s="85" t="s">
+      <c r="I198" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J198" s="85"/>
-      <c r="K198" s="85"/>
-      <c r="L198" s="85"/>
-      <c r="M198" s="85"/>
+      <c r="J198" s="91"/>
+      <c r="K198" s="91"/>
+      <c r="L198" s="91"/>
+      <c r="M198" s="91"/>
       <c r="N198" s="24"/>
       <c r="O198" s="24"/>
       <c r="P198" s="29">
@@ -25602,10 +25602,10 @@
       <c r="E222" s="22"/>
       <c r="F222" s="25"/>
       <c r="G222" s="28"/>
-      <c r="H222" s="86" t="s">
+      <c r="H222" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I222" s="86"/>
+      <c r="I222" s="89"/>
       <c r="J222" s="28">
         <f>G221</f>
         <v>13.128499999999999</v>
@@ -25632,8 +25632,8 @@
       <c r="E223" s="28"/>
       <c r="F223" s="25"/>
       <c r="G223" s="28"/>
-      <c r="H223" s="86"/>
-      <c r="I223" s="86"/>
+      <c r="H223" s="89"/>
+      <c r="I223" s="89"/>
       <c r="J223" s="28"/>
       <c r="K223" s="28"/>
       <c r="L223" s="25"/>
@@ -25664,10 +25664,10 @@
         <v>78</v>
       </c>
       <c r="C225" s="17"/>
-      <c r="D225" s="84">
+      <c r="D225" s="90">
         <v>0.8</v>
       </c>
-      <c r="E225" s="84"/>
+      <c r="E225" s="90"/>
       <c r="J225" s="22"/>
       <c r="K225" s="22"/>
       <c r="L225" s="22"/>
@@ -25677,24 +25677,24 @@
       <c r="P225" s="23"/>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B226" s="85" t="s">
+      <c r="B226" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C226" s="85"/>
-      <c r="D226" s="85"/>
-      <c r="E226" s="85"/>
-      <c r="F226" s="85"/>
-      <c r="G226" s="85"/>
+      <c r="C226" s="91"/>
+      <c r="D226" s="91"/>
+      <c r="E226" s="91"/>
+      <c r="F226" s="91"/>
+      <c r="G226" s="91"/>
       <c r="H226" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I226" s="85" t="s">
+      <c r="I226" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J226" s="85"/>
-      <c r="K226" s="85"/>
-      <c r="L226" s="85"/>
-      <c r="M226" s="85"/>
+      <c r="J226" s="91"/>
+      <c r="K226" s="91"/>
+      <c r="L226" s="91"/>
+      <c r="M226" s="91"/>
       <c r="N226" s="24"/>
       <c r="O226" s="24"/>
       <c r="P226" s="29">
@@ -26475,10 +26475,10 @@
       <c r="E250" s="22"/>
       <c r="F250" s="25"/>
       <c r="G250" s="28"/>
-      <c r="H250" s="86" t="s">
+      <c r="H250" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I250" s="86"/>
+      <c r="I250" s="89"/>
       <c r="J250" s="28">
         <f>G249</f>
         <v>11.405750000000001</v>
@@ -26503,10 +26503,10 @@
         <v>78</v>
       </c>
       <c r="C251" s="17"/>
-      <c r="D251" s="84">
+      <c r="D251" s="90">
         <v>0.9</v>
       </c>
-      <c r="E251" s="84"/>
+      <c r="E251" s="90"/>
       <c r="J251" s="22"/>
       <c r="K251" s="22"/>
       <c r="L251" s="22"/>
@@ -26516,24 +26516,24 @@
       <c r="P251" s="23"/>
     </row>
     <row r="252" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B252" s="85" t="s">
+      <c r="B252" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C252" s="85"/>
-      <c r="D252" s="85"/>
-      <c r="E252" s="85"/>
-      <c r="F252" s="85"/>
-      <c r="G252" s="85"/>
+      <c r="C252" s="91"/>
+      <c r="D252" s="91"/>
+      <c r="E252" s="91"/>
+      <c r="F252" s="91"/>
+      <c r="G252" s="91"/>
       <c r="H252" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I252" s="85" t="s">
+      <c r="I252" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J252" s="85"/>
-      <c r="K252" s="85"/>
-      <c r="L252" s="85"/>
-      <c r="M252" s="85"/>
+      <c r="J252" s="91"/>
+      <c r="K252" s="91"/>
+      <c r="L252" s="91"/>
+      <c r="M252" s="91"/>
       <c r="N252" s="24"/>
       <c r="O252" s="24"/>
       <c r="P252" s="29">
@@ -27252,10 +27252,10 @@
       <c r="E276" s="22"/>
       <c r="F276" s="25"/>
       <c r="G276" s="28"/>
-      <c r="H276" s="86" t="s">
+      <c r="H276" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I276" s="86"/>
+      <c r="I276" s="89"/>
       <c r="J276" s="28">
         <f>G275</f>
         <v>6.879999999999999</v>
@@ -27299,10 +27299,10 @@
         <v>78</v>
       </c>
       <c r="C278" s="17"/>
-      <c r="D278" s="84">
+      <c r="D278" s="90">
         <v>1</v>
       </c>
-      <c r="E278" s="84"/>
+      <c r="E278" s="90"/>
       <c r="J278" s="22"/>
       <c r="K278" s="22"/>
       <c r="L278" s="22"/>
@@ -27312,24 +27312,24 @@
       <c r="P278" s="23"/>
     </row>
     <row r="279" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B279" s="85" t="s">
+      <c r="B279" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C279" s="85"/>
-      <c r="D279" s="85"/>
-      <c r="E279" s="85"/>
-      <c r="F279" s="85"/>
-      <c r="G279" s="85"/>
+      <c r="C279" s="91"/>
+      <c r="D279" s="91"/>
+      <c r="E279" s="91"/>
+      <c r="F279" s="91"/>
+      <c r="G279" s="91"/>
       <c r="H279" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I279" s="85" t="s">
+      <c r="I279" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J279" s="85"/>
-      <c r="K279" s="85"/>
-      <c r="L279" s="85"/>
-      <c r="M279" s="85"/>
+      <c r="J279" s="91"/>
+      <c r="K279" s="91"/>
+      <c r="L279" s="91"/>
+      <c r="M279" s="91"/>
       <c r="N279" s="24"/>
       <c r="O279" s="24"/>
       <c r="P279" s="29">
@@ -28061,10 +28061,10 @@
       <c r="E303" s="22"/>
       <c r="F303" s="25"/>
       <c r="G303" s="28"/>
-      <c r="H303" s="86" t="s">
+      <c r="H303" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I303" s="86"/>
+      <c r="I303" s="89"/>
       <c r="J303" s="25">
         <f>G302</f>
         <v>9.9284999999999979</v>
@@ -28108,10 +28108,10 @@
         <v>78</v>
       </c>
       <c r="C305" s="17"/>
-      <c r="D305" s="84">
+      <c r="D305" s="90">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E305" s="84"/>
+      <c r="E305" s="90"/>
       <c r="J305" s="22"/>
       <c r="K305" s="22"/>
       <c r="L305" s="22"/>
@@ -28121,24 +28121,24 @@
       <c r="P305" s="23"/>
     </row>
     <row r="306" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B306" s="85" t="s">
+      <c r="B306" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C306" s="85"/>
-      <c r="D306" s="85"/>
-      <c r="E306" s="85"/>
-      <c r="F306" s="85"/>
-      <c r="G306" s="85"/>
+      <c r="C306" s="91"/>
+      <c r="D306" s="91"/>
+      <c r="E306" s="91"/>
+      <c r="F306" s="91"/>
+      <c r="G306" s="91"/>
       <c r="H306" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I306" s="85" t="s">
+      <c r="I306" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J306" s="85"/>
-      <c r="K306" s="85"/>
-      <c r="L306" s="85"/>
-      <c r="M306" s="85"/>
+      <c r="J306" s="91"/>
+      <c r="K306" s="91"/>
+      <c r="L306" s="91"/>
+      <c r="M306" s="91"/>
       <c r="N306" s="24"/>
       <c r="O306" s="24"/>
       <c r="P306" s="29">
@@ -28884,10 +28884,10 @@
       <c r="E330" s="22"/>
       <c r="F330" s="25"/>
       <c r="G330" s="28"/>
-      <c r="H330" s="86" t="s">
+      <c r="H330" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I330" s="86"/>
+      <c r="I330" s="89"/>
       <c r="J330" s="25">
         <f>G329</f>
         <v>9.1754999999999995</v>
@@ -28931,10 +28931,10 @@
         <v>78</v>
       </c>
       <c r="C332" s="17"/>
-      <c r="D332" s="84">
+      <c r="D332" s="90">
         <v>1.2</v>
       </c>
-      <c r="E332" s="84"/>
+      <c r="E332" s="90"/>
       <c r="J332" s="22"/>
       <c r="K332" s="22"/>
       <c r="L332" s="22"/>
@@ -28944,24 +28944,24 @@
       <c r="P332" s="23"/>
     </row>
     <row r="333" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B333" s="85" t="s">
+      <c r="B333" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="85"/>
-      <c r="D333" s="85"/>
-      <c r="E333" s="85"/>
-      <c r="F333" s="85"/>
-      <c r="G333" s="85"/>
+      <c r="C333" s="91"/>
+      <c r="D333" s="91"/>
+      <c r="E333" s="91"/>
+      <c r="F333" s="91"/>
+      <c r="G333" s="91"/>
       <c r="H333" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I333" s="85" t="s">
+      <c r="I333" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J333" s="85"/>
-      <c r="K333" s="85"/>
-      <c r="L333" s="85"/>
-      <c r="M333" s="85"/>
+      <c r="J333" s="91"/>
+      <c r="K333" s="91"/>
+      <c r="L333" s="91"/>
+      <c r="M333" s="91"/>
       <c r="N333" s="24"/>
       <c r="O333" s="24"/>
       <c r="P333" s="29">
@@ -29757,10 +29757,10 @@
       <c r="E357" s="22"/>
       <c r="F357" s="25"/>
       <c r="G357" s="28"/>
-      <c r="H357" s="86" t="s">
+      <c r="H357" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I357" s="86"/>
+      <c r="I357" s="89"/>
       <c r="J357" s="25">
         <f>G356</f>
         <v>6.5580000000000007</v>
@@ -29785,10 +29785,10 @@
         <v>78</v>
       </c>
       <c r="C358" s="17"/>
-      <c r="D358" s="84">
+      <c r="D358" s="90">
         <v>1.3</v>
       </c>
-      <c r="E358" s="84"/>
+      <c r="E358" s="90"/>
       <c r="J358" s="22"/>
       <c r="K358" s="22"/>
       <c r="L358" s="22"/>
@@ -29798,24 +29798,24 @@
       <c r="P358" s="23"/>
     </row>
     <row r="359" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B359" s="85" t="s">
+      <c r="B359" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C359" s="85"/>
-      <c r="D359" s="85"/>
-      <c r="E359" s="85"/>
-      <c r="F359" s="85"/>
-      <c r="G359" s="85"/>
+      <c r="C359" s="91"/>
+      <c r="D359" s="91"/>
+      <c r="E359" s="91"/>
+      <c r="F359" s="91"/>
+      <c r="G359" s="91"/>
       <c r="H359" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I359" s="85" t="s">
+      <c r="I359" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J359" s="85"/>
-      <c r="K359" s="85"/>
-      <c r="L359" s="85"/>
-      <c r="M359" s="85"/>
+      <c r="J359" s="91"/>
+      <c r="K359" s="91"/>
+      <c r="L359" s="91"/>
+      <c r="M359" s="91"/>
       <c r="N359" s="24"/>
       <c r="O359" s="24"/>
       <c r="P359" s="29">
@@ -30536,10 +30536,10 @@
       <c r="E383" s="22"/>
       <c r="F383" s="25"/>
       <c r="G383" s="28"/>
-      <c r="H383" s="86" t="s">
+      <c r="H383" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I383" s="86"/>
+      <c r="I383" s="89"/>
       <c r="J383" s="25">
         <f>G382</f>
         <v>8.4672499999999999</v>
@@ -30581,10 +30581,10 @@
         <v>78</v>
       </c>
       <c r="C385" s="17"/>
-      <c r="D385" s="84">
+      <c r="D385" s="90">
         <v>1.4</v>
       </c>
-      <c r="E385" s="84"/>
+      <c r="E385" s="90"/>
       <c r="J385" s="22"/>
       <c r="K385" s="22"/>
       <c r="L385" s="22"/>
@@ -30594,24 +30594,24 @@
       <c r="P385" s="23"/>
     </row>
     <row r="386" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B386" s="85" t="s">
+      <c r="B386" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C386" s="85"/>
-      <c r="D386" s="85"/>
-      <c r="E386" s="85"/>
-      <c r="F386" s="85"/>
-      <c r="G386" s="85"/>
+      <c r="C386" s="91"/>
+      <c r="D386" s="91"/>
+      <c r="E386" s="91"/>
+      <c r="F386" s="91"/>
+      <c r="G386" s="91"/>
       <c r="H386" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I386" s="85" t="s">
+      <c r="I386" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J386" s="85"/>
-      <c r="K386" s="85"/>
-      <c r="L386" s="85"/>
-      <c r="M386" s="85"/>
+      <c r="J386" s="91"/>
+      <c r="K386" s="91"/>
+      <c r="L386" s="91"/>
+      <c r="M386" s="91"/>
       <c r="N386" s="24"/>
       <c r="O386" s="24"/>
       <c r="P386" s="29">
@@ -31330,10 +31330,10 @@
       <c r="E410" s="22"/>
       <c r="F410" s="25"/>
       <c r="G410" s="28"/>
-      <c r="H410" s="86" t="s">
+      <c r="H410" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I410" s="86"/>
+      <c r="I410" s="89"/>
       <c r="J410" s="25">
         <f>G409</f>
         <v>8.9027500000000011</v>
@@ -31358,10 +31358,10 @@
         <v>78</v>
       </c>
       <c r="C411" s="17"/>
-      <c r="D411" s="84">
+      <c r="D411" s="90">
         <v>1.5</v>
       </c>
-      <c r="E411" s="84"/>
+      <c r="E411" s="90"/>
       <c r="J411" s="22"/>
       <c r="K411" s="22"/>
       <c r="L411" s="22"/>
@@ -31371,24 +31371,24 @@
       <c r="P411" s="23"/>
     </row>
     <row r="412" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B412" s="85" t="s">
+      <c r="B412" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C412" s="85"/>
-      <c r="D412" s="85"/>
-      <c r="E412" s="85"/>
-      <c r="F412" s="85"/>
-      <c r="G412" s="85"/>
+      <c r="C412" s="91"/>
+      <c r="D412" s="91"/>
+      <c r="E412" s="91"/>
+      <c r="F412" s="91"/>
+      <c r="G412" s="91"/>
       <c r="H412" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I412" s="85" t="s">
+      <c r="I412" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J412" s="85"/>
-      <c r="K412" s="85"/>
-      <c r="L412" s="85"/>
-      <c r="M412" s="85"/>
+      <c r="J412" s="91"/>
+      <c r="K412" s="91"/>
+      <c r="L412" s="91"/>
+      <c r="M412" s="91"/>
       <c r="N412" s="24"/>
       <c r="O412" s="24"/>
       <c r="P412" s="29">
@@ -32186,10 +32186,10 @@
         <v>78</v>
       </c>
       <c r="C440" s="17"/>
-      <c r="D440" s="84">
+      <c r="D440" s="90">
         <v>1.6</v>
       </c>
-      <c r="E440" s="84"/>
+      <c r="E440" s="90"/>
       <c r="J440" s="22"/>
       <c r="K440" s="22"/>
       <c r="L440" s="22"/>
@@ -32199,24 +32199,24 @@
       <c r="P440" s="23"/>
     </row>
     <row r="441" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B441" s="85" t="s">
+      <c r="B441" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C441" s="85"/>
-      <c r="D441" s="85"/>
-      <c r="E441" s="85"/>
-      <c r="F441" s="85"/>
-      <c r="G441" s="85"/>
+      <c r="C441" s="91"/>
+      <c r="D441" s="91"/>
+      <c r="E441" s="91"/>
+      <c r="F441" s="91"/>
+      <c r="G441" s="91"/>
       <c r="H441" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I441" s="85" t="s">
+      <c r="I441" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J441" s="85"/>
-      <c r="K441" s="85"/>
-      <c r="L441" s="85"/>
-      <c r="M441" s="85"/>
+      <c r="J441" s="91"/>
+      <c r="K441" s="91"/>
+      <c r="L441" s="91"/>
+      <c r="M441" s="91"/>
       <c r="N441" s="24"/>
       <c r="O441" s="24"/>
       <c r="P441" s="29">
@@ -33014,10 +33014,10 @@
         <v>78</v>
       </c>
       <c r="C469" s="17"/>
-      <c r="D469" s="84">
+      <c r="D469" s="90">
         <v>1.7</v>
       </c>
-      <c r="E469" s="84"/>
+      <c r="E469" s="90"/>
       <c r="J469" s="22"/>
       <c r="K469" s="22"/>
       <c r="L469" s="22"/>
@@ -33027,24 +33027,24 @@
       <c r="P469" s="23"/>
     </row>
     <row r="470" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B470" s="85" t="s">
+      <c r="B470" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C470" s="85"/>
-      <c r="D470" s="85"/>
-      <c r="E470" s="85"/>
-      <c r="F470" s="85"/>
-      <c r="G470" s="85"/>
+      <c r="C470" s="91"/>
+      <c r="D470" s="91"/>
+      <c r="E470" s="91"/>
+      <c r="F470" s="91"/>
+      <c r="G470" s="91"/>
       <c r="H470" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I470" s="85" t="s">
+      <c r="I470" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J470" s="85"/>
-      <c r="K470" s="85"/>
-      <c r="L470" s="85"/>
-      <c r="M470" s="85"/>
+      <c r="J470" s="91"/>
+      <c r="K470" s="91"/>
+      <c r="L470" s="91"/>
+      <c r="M470" s="91"/>
       <c r="N470" s="24"/>
       <c r="O470" s="24"/>
       <c r="P470" s="29">
@@ -33845,10 +33845,10 @@
         <v>78</v>
       </c>
       <c r="C498" s="17"/>
-      <c r="D498" s="84">
+      <c r="D498" s="90">
         <v>1.8</v>
       </c>
-      <c r="E498" s="84"/>
+      <c r="E498" s="90"/>
       <c r="J498" s="22"/>
       <c r="K498" s="22"/>
       <c r="L498" s="22"/>
@@ -33858,24 +33858,24 @@
       <c r="P498" s="23"/>
     </row>
     <row r="499" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B499" s="85" t="s">
+      <c r="B499" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C499" s="85"/>
-      <c r="D499" s="85"/>
-      <c r="E499" s="85"/>
-      <c r="F499" s="85"/>
-      <c r="G499" s="85"/>
+      <c r="C499" s="91"/>
+      <c r="D499" s="91"/>
+      <c r="E499" s="91"/>
+      <c r="F499" s="91"/>
+      <c r="G499" s="91"/>
       <c r="H499" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I499" s="85" t="s">
+      <c r="I499" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J499" s="85"/>
-      <c r="K499" s="85"/>
-      <c r="L499" s="85"/>
-      <c r="M499" s="85"/>
+      <c r="J499" s="91"/>
+      <c r="K499" s="91"/>
+      <c r="L499" s="91"/>
+      <c r="M499" s="91"/>
       <c r="N499" s="24"/>
       <c r="O499" s="24"/>
       <c r="P499" s="29">
@@ -34673,10 +34673,10 @@
         <v>78</v>
       </c>
       <c r="C528" s="17"/>
-      <c r="D528" s="84">
+      <c r="D528" s="90">
         <v>1.9</v>
       </c>
-      <c r="E528" s="84"/>
+      <c r="E528" s="90"/>
       <c r="J528" s="22"/>
       <c r="K528" s="22"/>
       <c r="L528" s="22"/>
@@ -34686,24 +34686,24 @@
       <c r="P528" s="23"/>
     </row>
     <row r="529" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B529" s="85" t="s">
+      <c r="B529" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C529" s="85"/>
-      <c r="D529" s="85"/>
-      <c r="E529" s="85"/>
-      <c r="F529" s="85"/>
-      <c r="G529" s="85"/>
+      <c r="C529" s="91"/>
+      <c r="D529" s="91"/>
+      <c r="E529" s="91"/>
+      <c r="F529" s="91"/>
+      <c r="G529" s="91"/>
       <c r="H529" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I529" s="85" t="s">
+      <c r="I529" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J529" s="85"/>
-      <c r="K529" s="85"/>
-      <c r="L529" s="85"/>
-      <c r="M529" s="85"/>
+      <c r="J529" s="91"/>
+      <c r="K529" s="91"/>
+      <c r="L529" s="91"/>
+      <c r="M529" s="91"/>
       <c r="N529" s="24"/>
       <c r="O529" s="24"/>
       <c r="P529" s="29">
@@ -35601,10 +35601,10 @@
         <v>78</v>
       </c>
       <c r="C558" s="17"/>
-      <c r="D558" s="84">
+      <c r="D558" s="90">
         <v>2</v>
       </c>
-      <c r="E558" s="84"/>
+      <c r="E558" s="90"/>
       <c r="J558" s="22"/>
       <c r="K558" s="22"/>
       <c r="L558" s="22"/>
@@ -35614,24 +35614,24 @@
       <c r="P558" s="23"/>
     </row>
     <row r="559" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B559" s="85" t="s">
+      <c r="B559" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C559" s="85"/>
-      <c r="D559" s="85"/>
-      <c r="E559" s="85"/>
-      <c r="F559" s="85"/>
-      <c r="G559" s="85"/>
+      <c r="C559" s="91"/>
+      <c r="D559" s="91"/>
+      <c r="E559" s="91"/>
+      <c r="F559" s="91"/>
+      <c r="G559" s="91"/>
       <c r="H559" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I559" s="85" t="s">
+      <c r="I559" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J559" s="85"/>
-      <c r="K559" s="85"/>
-      <c r="L559" s="85"/>
-      <c r="M559" s="85"/>
+      <c r="J559" s="91"/>
+      <c r="K559" s="91"/>
+      <c r="L559" s="91"/>
+      <c r="M559" s="91"/>
       <c r="N559" s="24"/>
       <c r="O559" s="24"/>
       <c r="P559" s="29">
@@ -36442,10 +36442,10 @@
         <v>78</v>
       </c>
       <c r="C588" s="17"/>
-      <c r="D588" s="84">
+      <c r="D588" s="90">
         <v>2.1</v>
       </c>
-      <c r="E588" s="84"/>
+      <c r="E588" s="90"/>
       <c r="J588" s="22"/>
       <c r="K588" s="22"/>
       <c r="L588" s="22"/>
@@ -36455,24 +36455,24 @@
       <c r="P588" s="23"/>
     </row>
     <row r="589" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B589" s="85" t="s">
+      <c r="B589" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C589" s="85"/>
-      <c r="D589" s="85"/>
-      <c r="E589" s="85"/>
-      <c r="F589" s="85"/>
-      <c r="G589" s="85"/>
+      <c r="C589" s="91"/>
+      <c r="D589" s="91"/>
+      <c r="E589" s="91"/>
+      <c r="F589" s="91"/>
+      <c r="G589" s="91"/>
       <c r="H589" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I589" s="85" t="s">
+      <c r="I589" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J589" s="85"/>
-      <c r="K589" s="85"/>
-      <c r="L589" s="85"/>
-      <c r="M589" s="85"/>
+      <c r="J589" s="91"/>
+      <c r="K589" s="91"/>
+      <c r="L589" s="91"/>
+      <c r="M589" s="91"/>
       <c r="N589" s="24"/>
       <c r="O589" s="24"/>
       <c r="P589" s="29">
@@ -37308,10 +37308,10 @@
         <v>78</v>
       </c>
       <c r="C618" s="17"/>
-      <c r="D618" s="84">
+      <c r="D618" s="90">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E618" s="84"/>
+      <c r="E618" s="90"/>
       <c r="J618" s="22"/>
       <c r="K618" s="22"/>
       <c r="L618" s="22"/>
@@ -37321,24 +37321,24 @@
       <c r="P618" s="23"/>
     </row>
     <row r="619" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B619" s="85" t="s">
+      <c r="B619" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C619" s="85"/>
-      <c r="D619" s="85"/>
-      <c r="E619" s="85"/>
-      <c r="F619" s="85"/>
-      <c r="G619" s="85"/>
+      <c r="C619" s="91"/>
+      <c r="D619" s="91"/>
+      <c r="E619" s="91"/>
+      <c r="F619" s="91"/>
+      <c r="G619" s="91"/>
       <c r="H619" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I619" s="85" t="s">
+      <c r="I619" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J619" s="85"/>
-      <c r="K619" s="85"/>
-      <c r="L619" s="85"/>
-      <c r="M619" s="85"/>
+      <c r="J619" s="91"/>
+      <c r="K619" s="91"/>
+      <c r="L619" s="91"/>
+      <c r="M619" s="91"/>
       <c r="N619" s="24"/>
       <c r="O619" s="24"/>
       <c r="P619" s="29">
@@ -38135,10 +38135,10 @@
         <v>78</v>
       </c>
       <c r="C648" s="17"/>
-      <c r="D648" s="84">
+      <c r="D648" s="90">
         <v>2.31</v>
       </c>
-      <c r="E648" s="84"/>
+      <c r="E648" s="90"/>
       <c r="J648" s="22"/>
       <c r="K648" s="22"/>
       <c r="L648" s="22"/>
@@ -38148,24 +38148,24 @@
       <c r="P648" s="23"/>
     </row>
     <row r="649" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B649" s="85" t="s">
+      <c r="B649" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C649" s="85"/>
-      <c r="D649" s="85"/>
-      <c r="E649" s="85"/>
-      <c r="F649" s="85"/>
-      <c r="G649" s="85"/>
+      <c r="C649" s="91"/>
+      <c r="D649" s="91"/>
+      <c r="E649" s="91"/>
+      <c r="F649" s="91"/>
+      <c r="G649" s="91"/>
       <c r="H649" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I649" s="85" t="s">
+      <c r="I649" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J649" s="85"/>
-      <c r="K649" s="85"/>
-      <c r="L649" s="85"/>
-      <c r="M649" s="85"/>
+      <c r="J649" s="91"/>
+      <c r="K649" s="91"/>
+      <c r="L649" s="91"/>
+      <c r="M649" s="91"/>
       <c r="N649" s="24"/>
       <c r="O649" s="24"/>
       <c r="P649" s="29">
@@ -39079,8 +39079,8 @@
       <c r="C678" s="20"/>
       <c r="D678" s="20"/>
       <c r="G678" s="17"/>
-      <c r="H678" s="84"/>
-      <c r="I678" s="84"/>
+      <c r="H678" s="90"/>
+      <c r="I678" s="90"/>
       <c r="J678" s="22"/>
       <c r="K678" s="22"/>
       <c r="L678" s="22"/>
@@ -39091,18 +39091,18 @@
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A679" s="52"/>
-      <c r="B679" s="83"/>
-      <c r="C679" s="83"/>
-      <c r="D679" s="83"/>
-      <c r="E679" s="83"/>
-      <c r="F679" s="83"/>
-      <c r="G679" s="83"/>
+      <c r="B679" s="93"/>
+      <c r="C679" s="93"/>
+      <c r="D679" s="93"/>
+      <c r="E679" s="93"/>
+      <c r="F679" s="93"/>
+      <c r="G679" s="93"/>
       <c r="H679" s="52"/>
-      <c r="I679" s="83"/>
-      <c r="J679" s="83"/>
-      <c r="K679" s="83"/>
-      <c r="L679" s="83"/>
-      <c r="M679" s="83"/>
+      <c r="I679" s="93"/>
+      <c r="J679" s="93"/>
+      <c r="K679" s="93"/>
+      <c r="L679" s="93"/>
+      <c r="M679" s="93"/>
       <c r="N679" s="24"/>
       <c r="O679" s="24"/>
       <c r="P679" s="29"/>
@@ -39665,8 +39665,8 @@
       <c r="E708" s="60"/>
       <c r="F708" s="57"/>
       <c r="G708" s="57"/>
-      <c r="H708" s="82"/>
-      <c r="I708" s="82"/>
+      <c r="H708" s="92"/>
+      <c r="I708" s="92"/>
       <c r="J708" s="60"/>
       <c r="K708" s="60"/>
       <c r="L708" s="60"/>
@@ -39678,18 +39678,18 @@
     </row>
     <row r="709" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A709" s="52"/>
-      <c r="B709" s="83"/>
-      <c r="C709" s="83"/>
-      <c r="D709" s="83"/>
-      <c r="E709" s="83"/>
-      <c r="F709" s="83"/>
-      <c r="G709" s="83"/>
+      <c r="B709" s="93"/>
+      <c r="C709" s="93"/>
+      <c r="D709" s="93"/>
+      <c r="E709" s="93"/>
+      <c r="F709" s="93"/>
+      <c r="G709" s="93"/>
       <c r="H709" s="52"/>
-      <c r="I709" s="83"/>
-      <c r="J709" s="83"/>
-      <c r="K709" s="83"/>
-      <c r="L709" s="83"/>
-      <c r="M709" s="83"/>
+      <c r="I709" s="93"/>
+      <c r="J709" s="93"/>
+      <c r="K709" s="93"/>
+      <c r="L709" s="93"/>
+      <c r="M709" s="93"/>
       <c r="N709" s="66"/>
       <c r="O709" s="66"/>
       <c r="P709" s="67"/>
@@ -40254,8 +40254,8 @@
       <c r="E738" s="60"/>
       <c r="F738" s="57"/>
       <c r="G738" s="57"/>
-      <c r="H738" s="82"/>
-      <c r="I738" s="82"/>
+      <c r="H738" s="92"/>
+      <c r="I738" s="92"/>
       <c r="J738" s="60"/>
       <c r="K738" s="60"/>
       <c r="L738" s="60"/>
@@ -40267,18 +40267,18 @@
     </row>
     <row r="739" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A739" s="52"/>
-      <c r="B739" s="83"/>
-      <c r="C739" s="83"/>
-      <c r="D739" s="83"/>
-      <c r="E739" s="83"/>
-      <c r="F739" s="83"/>
-      <c r="G739" s="83"/>
+      <c r="B739" s="93"/>
+      <c r="C739" s="93"/>
+      <c r="D739" s="93"/>
+      <c r="E739" s="93"/>
+      <c r="F739" s="93"/>
+      <c r="G739" s="93"/>
       <c r="H739" s="52"/>
-      <c r="I739" s="83"/>
-      <c r="J739" s="83"/>
-      <c r="K739" s="83"/>
-      <c r="L739" s="83"/>
-      <c r="M739" s="83"/>
+      <c r="I739" s="93"/>
+      <c r="J739" s="93"/>
+      <c r="K739" s="93"/>
+      <c r="L739" s="93"/>
+      <c r="M739" s="93"/>
       <c r="N739" s="66"/>
       <c r="O739" s="66"/>
       <c r="P739" s="67"/>
@@ -40844,8 +40844,8 @@
       <c r="E768" s="60"/>
       <c r="F768" s="57"/>
       <c r="G768" s="57"/>
-      <c r="H768" s="82"/>
-      <c r="I768" s="82"/>
+      <c r="H768" s="92"/>
+      <c r="I768" s="92"/>
       <c r="J768" s="60"/>
       <c r="K768" s="60"/>
       <c r="L768" s="60"/>
@@ -40857,18 +40857,18 @@
     </row>
     <row r="769" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A769" s="52"/>
-      <c r="B769" s="83"/>
-      <c r="C769" s="83"/>
-      <c r="D769" s="83"/>
-      <c r="E769" s="83"/>
-      <c r="F769" s="83"/>
-      <c r="G769" s="83"/>
+      <c r="B769" s="93"/>
+      <c r="C769" s="93"/>
+      <c r="D769" s="93"/>
+      <c r="E769" s="93"/>
+      <c r="F769" s="93"/>
+      <c r="G769" s="93"/>
       <c r="H769" s="52"/>
-      <c r="I769" s="83"/>
-      <c r="J769" s="83"/>
-      <c r="K769" s="83"/>
-      <c r="L769" s="83"/>
-      <c r="M769" s="83"/>
+      <c r="I769" s="93"/>
+      <c r="J769" s="93"/>
+      <c r="K769" s="93"/>
+      <c r="L769" s="93"/>
+      <c r="M769" s="93"/>
       <c r="N769" s="66"/>
       <c r="O769" s="66"/>
       <c r="P769" s="67"/>
@@ -41453,8 +41453,8 @@
       <c r="E799" s="60"/>
       <c r="F799" s="57"/>
       <c r="G799" s="57"/>
-      <c r="H799" s="82"/>
-      <c r="I799" s="82"/>
+      <c r="H799" s="92"/>
+      <c r="I799" s="92"/>
       <c r="J799" s="60"/>
       <c r="K799" s="60"/>
       <c r="L799" s="60"/>
@@ -41466,18 +41466,18 @@
     </row>
     <row r="800" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A800" s="52"/>
-      <c r="B800" s="83"/>
-      <c r="C800" s="83"/>
-      <c r="D800" s="83"/>
-      <c r="E800" s="83"/>
-      <c r="F800" s="83"/>
-      <c r="G800" s="83"/>
+      <c r="B800" s="93"/>
+      <c r="C800" s="93"/>
+      <c r="D800" s="93"/>
+      <c r="E800" s="93"/>
+      <c r="F800" s="93"/>
+      <c r="G800" s="93"/>
       <c r="H800" s="52"/>
-      <c r="I800" s="83"/>
-      <c r="J800" s="83"/>
-      <c r="K800" s="83"/>
-      <c r="L800" s="83"/>
-      <c r="M800" s="83"/>
+      <c r="I800" s="93"/>
+      <c r="J800" s="93"/>
+      <c r="K800" s="93"/>
+      <c r="L800" s="93"/>
+      <c r="M800" s="93"/>
       <c r="N800" s="66"/>
       <c r="O800" s="66"/>
       <c r="P800" s="67"/>
@@ -42062,8 +42062,8 @@
       <c r="E830" s="60"/>
       <c r="F830" s="57"/>
       <c r="G830" s="57"/>
-      <c r="H830" s="82"/>
-      <c r="I830" s="82"/>
+      <c r="H830" s="92"/>
+      <c r="I830" s="92"/>
       <c r="J830" s="60"/>
       <c r="K830" s="60"/>
       <c r="L830" s="60"/>
@@ -42075,18 +42075,18 @@
     </row>
     <row r="831" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A831" s="52"/>
-      <c r="B831" s="83"/>
-      <c r="C831" s="83"/>
-      <c r="D831" s="83"/>
-      <c r="E831" s="83"/>
-      <c r="F831" s="83"/>
-      <c r="G831" s="83"/>
+      <c r="B831" s="93"/>
+      <c r="C831" s="93"/>
+      <c r="D831" s="93"/>
+      <c r="E831" s="93"/>
+      <c r="F831" s="93"/>
+      <c r="G831" s="93"/>
       <c r="H831" s="52"/>
-      <c r="I831" s="83"/>
-      <c r="J831" s="83"/>
-      <c r="K831" s="83"/>
-      <c r="L831" s="83"/>
-      <c r="M831" s="83"/>
+      <c r="I831" s="93"/>
+      <c r="J831" s="93"/>
+      <c r="K831" s="93"/>
+      <c r="L831" s="93"/>
+      <c r="M831" s="93"/>
       <c r="N831" s="66"/>
       <c r="O831" s="66"/>
       <c r="P831" s="67"/>
@@ -42682,23 +42682,74 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="H830:I830"/>
+    <mergeCell ref="B831:G831"/>
+    <mergeCell ref="I831:M831"/>
+    <mergeCell ref="H768:I768"/>
+    <mergeCell ref="B769:G769"/>
+    <mergeCell ref="I769:M769"/>
+    <mergeCell ref="H799:I799"/>
+    <mergeCell ref="B800:G800"/>
+    <mergeCell ref="I800:M800"/>
+    <mergeCell ref="H708:I708"/>
+    <mergeCell ref="B709:G709"/>
+    <mergeCell ref="I709:M709"/>
+    <mergeCell ref="H738:I738"/>
+    <mergeCell ref="B739:G739"/>
+    <mergeCell ref="I739:M739"/>
+    <mergeCell ref="D648:E648"/>
+    <mergeCell ref="B649:G649"/>
+    <mergeCell ref="I649:M649"/>
+    <mergeCell ref="H678:I678"/>
+    <mergeCell ref="B679:G679"/>
+    <mergeCell ref="I679:M679"/>
+    <mergeCell ref="D588:E588"/>
+    <mergeCell ref="B589:G589"/>
+    <mergeCell ref="I589:M589"/>
+    <mergeCell ref="D618:E618"/>
+    <mergeCell ref="B619:G619"/>
+    <mergeCell ref="I619:M619"/>
+    <mergeCell ref="D528:E528"/>
+    <mergeCell ref="B529:G529"/>
+    <mergeCell ref="I529:M529"/>
+    <mergeCell ref="D558:E558"/>
+    <mergeCell ref="B559:G559"/>
+    <mergeCell ref="I559:M559"/>
+    <mergeCell ref="B470:G470"/>
+    <mergeCell ref="I470:M470"/>
+    <mergeCell ref="D498:E498"/>
+    <mergeCell ref="B499:G499"/>
+    <mergeCell ref="I499:M499"/>
+    <mergeCell ref="D440:E440"/>
+    <mergeCell ref="B441:G441"/>
+    <mergeCell ref="I441:M441"/>
+    <mergeCell ref="D469:E469"/>
+    <mergeCell ref="B386:G386"/>
+    <mergeCell ref="I386:M386"/>
+    <mergeCell ref="H410:I410"/>
+    <mergeCell ref="D411:E411"/>
+    <mergeCell ref="B412:G412"/>
+    <mergeCell ref="I412:M412"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="B359:G359"/>
+    <mergeCell ref="I359:M359"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="B306:G306"/>
+    <mergeCell ref="I306:M306"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="D332:E332"/>
+    <mergeCell ref="B279:G279"/>
+    <mergeCell ref="I279:M279"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="I198:M198"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="H223:I223"/>
     <mergeCell ref="B333:G333"/>
     <mergeCell ref="I333:M333"/>
     <mergeCell ref="H383:I383"/>
@@ -42723,74 +42774,23 @@
     <mergeCell ref="D197:E197"/>
     <mergeCell ref="D225:E225"/>
     <mergeCell ref="I226:M226"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="B306:G306"/>
-    <mergeCell ref="I306:M306"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="D332:E332"/>
-    <mergeCell ref="B279:G279"/>
-    <mergeCell ref="I279:M279"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="I198:M198"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="B386:G386"/>
-    <mergeCell ref="I386:M386"/>
-    <mergeCell ref="H410:I410"/>
-    <mergeCell ref="D411:E411"/>
-    <mergeCell ref="B412:G412"/>
-    <mergeCell ref="I412:M412"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="B359:G359"/>
-    <mergeCell ref="I359:M359"/>
-    <mergeCell ref="B470:G470"/>
-    <mergeCell ref="I470:M470"/>
-    <mergeCell ref="D498:E498"/>
-    <mergeCell ref="B499:G499"/>
-    <mergeCell ref="I499:M499"/>
-    <mergeCell ref="D440:E440"/>
-    <mergeCell ref="B441:G441"/>
-    <mergeCell ref="I441:M441"/>
-    <mergeCell ref="D469:E469"/>
-    <mergeCell ref="D588:E588"/>
-    <mergeCell ref="B589:G589"/>
-    <mergeCell ref="I589:M589"/>
-    <mergeCell ref="D618:E618"/>
-    <mergeCell ref="B619:G619"/>
-    <mergeCell ref="I619:M619"/>
-    <mergeCell ref="D528:E528"/>
-    <mergeCell ref="B529:G529"/>
-    <mergeCell ref="I529:M529"/>
-    <mergeCell ref="D558:E558"/>
-    <mergeCell ref="B559:G559"/>
-    <mergeCell ref="I559:M559"/>
-    <mergeCell ref="H708:I708"/>
-    <mergeCell ref="B709:G709"/>
-    <mergeCell ref="I709:M709"/>
-    <mergeCell ref="H738:I738"/>
-    <mergeCell ref="B739:G739"/>
-    <mergeCell ref="I739:M739"/>
-    <mergeCell ref="D648:E648"/>
-    <mergeCell ref="B649:G649"/>
-    <mergeCell ref="I649:M649"/>
-    <mergeCell ref="H678:I678"/>
-    <mergeCell ref="B679:G679"/>
-    <mergeCell ref="I679:M679"/>
-    <mergeCell ref="H830:I830"/>
-    <mergeCell ref="B831:G831"/>
-    <mergeCell ref="I831:M831"/>
-    <mergeCell ref="H768:I768"/>
-    <mergeCell ref="B769:G769"/>
-    <mergeCell ref="I769:M769"/>
-    <mergeCell ref="H799:I799"/>
-    <mergeCell ref="B800:G800"/>
-    <mergeCell ref="I800:M800"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="D92:E92"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -42846,7 +42846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -44118,7 +44118,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
